--- a/vector.xlsx
+++ b/vector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akoretsk\Desktop\Matlab Projects\Jacobi Method\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab Projects\Jacobi_Method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C934A25A-9207-4639-A55B-9288CE8E4B31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443A8E17-6B9C-4CEE-B05A-133E53C30397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2196BF83-E1AC-44C1-AC5C-E13FEB19580C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2196BF83-E1AC-44C1-AC5C-E13FEB19580C}"/>
   </bookViews>
   <sheets>
     <sheet name="vector" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -383,7 +386,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -392,18 +395,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>12</v>
+      <c r="A1" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>12</v>
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>12</v>
+      <c r="A3" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
